--- a/Team-Data/2008-09/12-16-2008-09.xlsx
+++ b/Team-Data/2008-09/12-16-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -874,13 +874,13 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="O3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
         <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>24.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
         <v>18</v>
@@ -1029,22 +1029,22 @@
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>28</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1241,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>15</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.478</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1342,43 +1342,43 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1387,52 +1387,52 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,139 +1461,139 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.87</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="n">
         <v>4</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3</v>
-      </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1605,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>5</v>
@@ -1721,13 +1721,13 @@
         <v>2.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1736,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1781,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>15</v>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1903,7 +1903,7 @@
         <v>5.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2106,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2124,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
         <v>23</v>
@@ -2136,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>4</v>
@@ -2154,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>24</v>
@@ -2267,7 +2267,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2279,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>23</v>
@@ -2333,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2467,7 +2467,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2479,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2494,10 +2494,10 @@
         <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2524,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2646,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>9</v>
@@ -2664,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
         <v>27</v>
@@ -2703,10 +2703,10 @@
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2828,10 +2828,10 @@
         <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.864</v>
+        <v>0.87</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2980,31 +2980,31 @@
         <v>5.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -3022,10 +3022,10 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3058,19 +3058,19 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA14" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3177,13 +3177,13 @@
         <v>-3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3210,13 +3210,13 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3240,10 +3240,10 @@
         <v>24</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="AM16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3422,13 +3422,13 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>20</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.44</v>
+        <v>0.423</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3481,10 +3481,10 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
         <v>5.2</v>
@@ -3493,34 +3493,34 @@
         <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R17" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.6</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
@@ -3529,37 +3529,37 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>25</v>
@@ -3568,16 +3568,16 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
@@ -3589,16 +3589,16 @@
         <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3610,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC17" t="n">
         <v>18</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3741,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3762,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3774,7 +3774,7 @@
         <v>15</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>13</v>
@@ -3792,7 +3792,7 @@
         <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>26</v>
@@ -3905,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3965,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4144,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4156,10 +4156,10 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4269,7 +4269,7 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4317,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>18</v>
@@ -4490,7 +4490,7 @@
         <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>16</v>
@@ -4633,10 +4633,10 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4648,7 +4648,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO23" t="n">
         <v>12</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4699,13 +4699,13 @@
         <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
         <v>7</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>5</v>
@@ -4815,10 +4815,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
@@ -4830,10 +4830,10 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
@@ -4851,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4866,10 +4866,10 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>15</v>
@@ -4997,22 +4997,22 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>28</v>
@@ -5024,13 +5024,13 @@
         <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5054,10 +5054,10 @@
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.77</v>
       </c>
       <c r="R26" t="n">
         <v>13.3</v>
       </c>
       <c r="S26" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5161,46 +5161,46 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5212,13 +5212,13 @@
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>3</v>
@@ -5236,10 +5236,10 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
@@ -5248,13 +5248,13 @@
         <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5373,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
@@ -5382,10 +5382,10 @@
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
@@ -5400,7 +5400,7 @@
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5433,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5543,7 +5543,7 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5597,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5618,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5725,10 +5725,10 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
@@ -5758,10 +5758,10 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5946,10 +5946,10 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5976,13 +5976,13 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6125,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>19</v>
@@ -6152,13 +6152,13 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>

--- a/Team-Data/2008-09/12-16-2008-09.xlsx
+++ b/Team-Data/2008-09/12-16-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -795,25 +862,25 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="O3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
         <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>24.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
         <v>18</v>
@@ -956,28 +1023,28 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>28</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -998,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.308</v>
+        <v>0.28</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="J4" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.434</v>
       </c>
       <c r="L4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="U4" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>90</v>
+        <v>89.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.6</v>
+        <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,22 +1196,22 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM4" t="n">
         <v>24</v>
       </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP4" t="n">
         <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>24</v>
@@ -1162,28 +1229,28 @@
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -1215,103 +1282,103 @@
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.435</v>
+        <v>0.478</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
         <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.7</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG5" t="n">
         <v>17</v>
       </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1320,22 +1387,22 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1344,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="AV5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>20</v>
       </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>24</v>
-      </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -1394,142 +1461,142 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.87</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="n">
         <v>4</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3</v>
-      </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -1657,10 +1724,10 @@
         <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1669,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
@@ -1687,10 +1754,10 @@
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
@@ -1705,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1714,16 +1781,16 @@
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>0.708</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,85 +1843,85 @@
         <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.365</v>
+        <v>0.361</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Y8" t="n">
         <v>6.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
@@ -1875,43 +1942,43 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
         <v>3</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
@@ -2039,19 +2106,19 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>15</v>
@@ -2060,7 +2127,7 @@
         <v>16</v>
       </c>
       <c r="AR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
@@ -2069,13 +2136,13 @@
         <v>26</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2200,34 +2267,34 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2236,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>23</v>
@@ -2254,16 +2321,16 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.436</v>
+        <v>0.431</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.379</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="P11" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.819</v>
+        <v>0.821</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T11" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U11" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V11" t="n">
         <v>13.8</v>
       </c>
       <c r="W11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
         <v>18.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,31 +2461,31 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2427,10 +2494,10 @@
         <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2445,16 +2512,16 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
@@ -2588,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>9</v>
@@ -2597,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
         <v>27</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2633,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.292</v>
+        <v>0.261</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>5.3</v>
       </c>
       <c r="M13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N13" t="n">
         <v>0.315</v>
@@ -2704,10 +2771,10 @@
         <v>15.5</v>
       </c>
       <c r="P13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
@@ -2716,7 +2783,7 @@
         <v>29.7</v>
       </c>
       <c r="T13" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
@@ -2725,10 +2792,10 @@
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
@@ -2737,40 +2804,40 @@
         <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2794,19 +2861,19 @@
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -2865,10 +2932,10 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,34 +2944,34 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
         <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
         <v>9.6</v>
@@ -2919,13 +2986,13 @@
         <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="AD14" t="n">
         <v>22</v>
@@ -2946,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
         <v>14</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,13 +3049,13 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3032,160 +3099,160 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
         <v>4.8</v>
       </c>
       <c r="M15" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T15" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U15" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="V15" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.4</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA15" t="n">
         <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>10</v>
       </c>
       <c r="AX15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3316,25 +3383,25 @@
         <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
       </c>
       <c r="AR16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS16" t="n">
         <v>27</v>
@@ -3361,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.44</v>
+        <v>0.423</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,10 +3481,10 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
         <v>5.2</v>
@@ -3426,34 +3493,34 @@
         <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R17" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.6</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
@@ -3462,73 +3529,73 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
         <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW17" t="n">
         <v>24</v>
@@ -3543,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3668,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3689,13 +3756,13 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3707,10 +3774,10 @@
         <v>15</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3719,16 +3786,16 @@
         <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ18" t="n">
         <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3862,13 +3929,13 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3898,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -3913,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -3942,82 +4009,82 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.65</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="J20" t="n">
-        <v>75.8</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="O20" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T20" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="U20" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Z20" t="n">
         <v>21.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
@@ -4029,22 +4096,22 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
@@ -4053,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4068,16 +4135,16 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44</v>
+        <v>0.458</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>87.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M21" t="n">
         <v>29.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O21" t="n">
-        <v>17.6</v>
+        <v>17.2</v>
       </c>
       <c r="P21" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.806</v>
+        <v>0.797</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T21" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U21" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V21" t="n">
         <v>15.4</v>
@@ -4193,16 +4260,16 @@
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.3</v>
+        <v>104.9</v>
       </c>
       <c r="AC21" t="n">
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4211,19 +4278,19 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>3</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
@@ -4250,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4268,7 +4335,7 @@
         <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
@@ -4324,67 +4391,67 @@
         <v>35.6</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M22" t="n">
         <v>10.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="O22" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P22" t="n">
         <v>24.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.754</v>
+        <v>0.761</v>
       </c>
       <c r="R22" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
         <v>29.7</v>
       </c>
       <c r="T22" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U22" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>19.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>93.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>-9.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4399,34 +4466,34 @@
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP22" t="n">
         <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>19</v>
@@ -4438,16 +4505,16 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4614,19 +4681,19 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4638,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -4748,31 +4815,31 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="n">
         <v>19</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4793,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
         <v>3</v>
@@ -4805,7 +4872,7 @@
         <v>25</v>
       </c>
       <c r="AW24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -4930,40 +4997,40 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
         <v>5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -4975,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4990,7 +5057,7 @@
         <v>25</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -5037,130 +5104,130 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="O26" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R26" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>21</v>
+      </c>
+      <c r="V26" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA26" t="n">
         <v>20.4</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="R26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>13</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.8</v>
-      </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>13</v>
@@ -5172,22 +5239,22 @@
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -5216,106 +5283,106 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>0.269</v>
+        <v>0.28</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="J27" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.46</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.304</v>
+        <v>0.301</v>
       </c>
       <c r="O27" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
         <v>29.4</v>
       </c>
       <c r="T27" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V27" t="n">
         <v>15.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.4</v>
+        <v>-7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF27" t="n">
         <v>25</v>
       </c>
-      <c r="AF27" t="n">
-        <v>28</v>
-      </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
@@ -5327,16 +5394,16 @@
         <v>29</v>
       </c>
       <c r="AO27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP27" t="n">
         <v>23</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AQ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR27" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>21</v>
@@ -5345,28 +5412,28 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX27" t="n">
         <v>23</v>
       </c>
-      <c r="AW27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>22</v>
-      </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5546,13 @@
         <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG28" t="n">
         <v>6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5530,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5551,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="n">
         <v>19</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ29" t="n">
         <v>24</v>
@@ -5682,19 +5749,19 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5709,7 +5776,7 @@
         <v>29</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
@@ -5727,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5855,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,10 +5946,10 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5897,7 +5964,7 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>20</v>
@@ -5906,16 +5973,16 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
@@ -6052,22 +6119,22 @@
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
@@ -6082,16 +6149,16 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-16-2008-09</t>
+          <t>2008-12-16</t>
         </is>
       </c>
     </row>
